--- a/2402-2406/5-RECHERCHER/NO.2/NO.2.xlsx
+++ b/2402-2406/5-RECHERCHER/NO.2/NO.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16273\GitHub\ISEP-Documents\2402-2406\5-RECHERCHER\NO.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D8401C-3ABE-4948-86E2-ADC3E6CEF98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD0A98B-2A32-46F8-ABC6-0A14B8B29C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -269,65 +269,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Deep learning has been successfully applied across a range of cancer types for tasks such as tissue type classification and biomarker assessment. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Deep learning has been successfully applied across a range of cancer types for tasks such as tissue type classification and biomarker assessment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -725,6 +666,10 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep learning has been successfully applied across a range of cancer types for tasks such as tissue type classification and biomarker assessment. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -818,6 +763,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1155,8 +1103,8 @@
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1172,27 +1120,27 @@
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="392" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
